--- a/data/final_dataset_Em_flavoproteins.xlsx
+++ b/data/final_dataset_Em_flavoproteins.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\Prediction_Flavoprotein_EM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\Chronos\Progetto Flavoproteine\github\Prediction_Flavoprotein_EM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A607B9C-315D-402A-B2F8-F6AFDBF683C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{399A4DCA-D1A8-4422-8056-EC783958B58B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="385">
   <si>
     <t>Cofactor</t>
   </si>
@@ -1187,12 +1186,15 @@
   </si>
   <si>
     <t> Clostridium beijerinckii</t>
+  </si>
+  <si>
+    <t>mancante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1339,7 +1341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1464,9 +1466,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,9 +1473,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,25 +1819,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390A9AD1-228C-446E-BA94-520DFDBBD8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="53" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="51" customWidth="1"/>
     <col min="2" max="2" width="89" style="8" customWidth="1"/>
-    <col min="3" max="7" width="15.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="78.33203125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="8"/>
+    <col min="3" max="7" width="15.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="78.28515625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1867,7 +1863,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1877,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D7" si="0">AVERAGE(F2:G2)</f>
+        <f>AVERAGE(F2:G2)</f>
         <v>-350</v>
       </c>
       <c r="E2" s="4"/>
@@ -1892,7 +1888,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="45" t="s">
         <v>181</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1902,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F3:G3)</f>
         <v>-343.5</v>
       </c>
       <c r="E3" s="4"/>
@@ -1917,7 +1913,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="45" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1927,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:G4)</f>
         <v>-310.5</v>
       </c>
       <c r="E4" s="4">
@@ -1944,7 +1940,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="45" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1954,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F5:G5)</f>
         <v>-297.5</v>
       </c>
       <c r="E5" s="4">
@@ -1971,7 +1967,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1981,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:G6)</f>
         <v>-320</v>
       </c>
       <c r="E6" s="4">
@@ -1998,7 +1994,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2008,7 +2004,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F7:G7)</f>
         <v>-316</v>
       </c>
       <c r="E7" s="4">
@@ -2025,7 +2021,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2051,7 +2047,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2077,7 +2073,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2098,12 +2094,12 @@
       <c r="G10" s="13">
         <v>-261</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2129,7 +2125,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="47" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2155,7 +2151,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>331</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2170,10 +2166,12 @@
       <c r="E13" s="4"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>273</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2193,13 +2191,15 @@
       <c r="G14" s="4">
         <v>-90</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="H14" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="52" t="s">
         <v>335</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2211,10 +2211,12 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>334</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2229,10 +2231,12 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2253,10 +2257,12 @@
       <c r="G17" s="4">
         <v>-131</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2282,7 +2288,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2308,7 +2314,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2334,7 +2340,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2360,7 +2366,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2381,10 +2387,12 @@
       <c r="G22" s="4">
         <v>-196</v>
       </c>
-      <c r="H22" s="42"/>
+      <c r="H22" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="45" t="s">
         <v>336</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2399,10 +2407,12 @@
       <c r="E23" s="22"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="46"/>
+      <c r="H23" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="45" t="s">
         <v>145</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2426,8 +2436,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2448,12 +2458,12 @@
       <c r="G25" s="13">
         <v>-65</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>259</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2477,7 +2487,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="45" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2503,7 +2513,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="45" t="s">
         <v>164</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2530,7 +2540,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="45" t="s">
         <v>167</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -2557,7 +2567,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="45" t="s">
         <v>337</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2574,10 +2584,12 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="45" t="s">
         <v>165</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2604,7 +2616,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="45" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -2631,7 +2643,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>161</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -2658,7 +2670,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>339</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -2673,10 +2685,12 @@
       <c r="E34" s="21"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="47" t="s">
+      <c r="H34" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
         <v>211</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -2701,7 +2715,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="48" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2727,7 +2741,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="48" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2753,7 +2767,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="49" t="s">
         <v>270</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -2772,10 +2786,12 @@
       <c r="G38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
+      <c r="H38" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
         <v>198</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -2801,10 +2817,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="53" t="s">
         <v>341</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -2816,10 +2832,12 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="H40" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="45" t="s">
         <v>290</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2839,10 +2857,12 @@
       <c r="G41" s="4">
         <v>-6</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="45" t="s">
         <v>289</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2862,10 +2882,12 @@
       <c r="G42" s="4">
         <v>-42</v>
       </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="47" t="s">
+      <c r="H42" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
         <v>103</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2889,7 +2911,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -2914,7 +2936,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="49" t="s">
         <v>272</v>
       </c>
       <c r="B45" s="21" t="s">
@@ -2933,10 +2955,12 @@
       <c r="G45" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="45" t="s">
         <v>342</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2951,10 +2975,12 @@
       <c r="E46" s="21"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="30"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="50" t="s">
+      <c r="H46" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -2979,8 +3005,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="51" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
         <v>219</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3005,7 +3031,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="49" t="s">
         <v>173</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3032,7 +3058,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="45" t="s">
         <v>175</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -3059,7 +3085,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="45" t="s">
         <v>343</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -3074,10 +3100,12 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="30"/>
+      <c r="H51" s="30" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="45" t="s">
         <v>154</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3104,7 +3132,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -3130,7 +3158,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -3157,7 +3185,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="45" t="s">
         <v>232</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -3183,7 +3211,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="45" t="s">
         <v>174</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -3210,7 +3238,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="45" t="s">
         <v>132</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3237,7 +3265,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -3256,10 +3284,12 @@
       <c r="G58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="45" t="s">
         <v>222</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -3279,10 +3309,12 @@
       <c r="G59" s="4">
         <v>-357</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="45" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -3307,59 +3339,59 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="47" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
         <v>229</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4">
-        <v>-344</v>
+        <f>AVERAGE(F61:G61)</f>
+        <v>-322.5</v>
       </c>
       <c r="E61" s="4">
-        <v>7</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>49</v>
+        <v>7.5</v>
+      </c>
+      <c r="F61" s="4">
+        <v>-331</v>
+      </c>
+      <c r="G61" s="4">
+        <v>-314</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="45" t="s">
         <v>229</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D62" s="4">
-        <f>AVERAGE(F62:G62)</f>
-        <v>-322.5</v>
+        <v>-344</v>
       </c>
       <c r="E62" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="F62" s="4">
-        <v>-331</v>
-      </c>
-      <c r="G62" s="4">
-        <v>-314</v>
+        <v>7</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="45" t="s">
         <v>283</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -3379,10 +3411,12 @@
       <c r="G63" s="4">
         <v>-17</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="45" t="s">
         <v>96</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3408,7 +3442,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="45" t="s">
         <v>147</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -3433,7 +3467,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="45" t="s">
         <v>255</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -3457,7 +3491,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="45" t="s">
         <v>257</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -3482,7 +3516,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="45" t="s">
         <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3506,7 +3540,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -3532,7 +3566,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -3549,10 +3583,12 @@
       <c r="G70" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="45" t="s">
         <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -3577,7 +3613,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="45" t="s">
         <v>304</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -3590,10 +3626,12 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="47" t="s">
+      <c r="H72" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="45" t="s">
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -3613,7 +3651,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="45" t="s">
         <v>120</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -3637,7 +3675,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="45" t="s">
         <v>344</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -3652,10 +3690,12 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="47" t="s">
+      <c r="H75" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="45" t="s">
         <v>203</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -3678,8 +3718,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="47" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="45" t="s">
         <v>204</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -3698,12 +3738,12 @@
       <c r="G77" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H77" s="43" t="s">
+      <c r="H77" s="42" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="47" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -3726,8 +3766,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="47" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="45" t="s">
         <v>205</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -3751,7 +3791,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="45" t="s">
         <v>37</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -3777,7 +3817,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -3803,7 +3843,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="45" t="s">
         <v>317</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -3816,10 +3856,12 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="H82" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="45" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -3843,7 +3885,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="45" t="s">
         <v>248</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -3867,7 +3909,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="45" t="s">
         <v>105</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -3886,12 +3928,12 @@
       <c r="G85" s="4">
         <v>-340</v>
       </c>
-      <c r="H85" s="44" t="s">
+      <c r="H85" s="43" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="45" t="s">
         <v>107</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -3913,7 +3955,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -3939,7 +3981,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -3965,7 +4007,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="45" t="s">
         <v>345</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -3982,56 +4024,58 @@
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4">
+        <v>-180</v>
+      </c>
+      <c r="E90" s="4">
+        <v>7</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="13">
+      <c r="C91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="13">
         <v>-312</v>
       </c>
-      <c r="E90" s="4">
-        <v>7</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H90" s="14" t="s">
+      <c r="E91" s="4">
+        <v>7</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H91" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4">
-        <v>-180</v>
-      </c>
-      <c r="E91" s="4">
-        <v>7</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="45" t="s">
         <v>286</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -4049,10 +4093,12 @@
       <c r="G92" s="4">
         <v>-197</v>
       </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="45" t="s">
         <v>156</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -4077,7 +4123,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="45" t="s">
         <v>160</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -4102,7 +4148,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="45" t="s">
         <v>329</v>
       </c>
       <c r="B95" s="16" t="s">
@@ -4128,7 +4174,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="45" t="s">
         <v>346</v>
       </c>
       <c r="B96" s="16" t="s">
@@ -4143,10 +4189,12 @@
       <c r="E96" s="13"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="14"/>
+      <c r="H96" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="47" t="s">
         <v>69</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -4172,7 +4220,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -4198,7 +4246,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -4224,7 +4272,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="45" t="s">
         <v>242</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -4242,10 +4290,12 @@
       <c r="G100" s="4">
         <v>-110</v>
       </c>
-      <c r="H100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -4271,7 +4321,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="45" t="s">
         <v>73</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -4296,7 +4346,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="45" t="s">
         <v>197</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -4321,7 +4371,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="45" t="s">
         <v>191</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4340,8 +4390,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="47" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="45" t="s">
         <v>227</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -4366,7 +4416,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4392,7 +4442,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -4418,7 +4468,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -4444,7 +4494,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -4470,7 +4520,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="45" t="s">
         <v>347</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -4485,10 +4535,12 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
+      <c r="H110" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="45" t="s">
         <v>300</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -4503,10 +4555,12 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="47" t="s">
+      <c r="H111" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="45" t="s">
         <v>253</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -4530,7 +4584,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="47" t="s">
         <v>72</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -4556,7 +4610,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="49" t="s">
+      <c r="A114" s="47" t="s">
         <v>348</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -4573,10 +4627,12 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="6"/>
+      <c r="H114" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="49" t="s">
+      <c r="A115" s="47" t="s">
         <v>349</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -4593,10 +4649,12 @@
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="6"/>
+      <c r="H115" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -4616,10 +4674,12 @@
       <c r="G116" s="4">
         <v>-420</v>
       </c>
-      <c r="H116" s="30"/>
+      <c r="H116" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="45" t="s">
         <v>297</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -4637,10 +4697,12 @@
       <c r="G117" s="4">
         <v>-220</v>
       </c>
-      <c r="H117" s="4"/>
+      <c r="H117" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="45" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -4665,7 +4727,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="45" t="s">
         <v>136</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -4690,7 +4752,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="45" t="s">
         <v>310</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -4703,10 +4765,12 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="47" t="s">
+      <c r="H120" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="45" t="s">
         <v>208</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -4724,7 +4788,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -4737,10 +4801,12 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="31"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="47" t="s">
+      <c r="H122" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="45" t="s">
         <v>201</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -4764,7 +4830,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="45" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -4782,10 +4848,12 @@
       <c r="G124" s="37">
         <v>-275</v>
       </c>
-      <c r="H124" s="30"/>
+      <c r="H124" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="45" t="s">
         <v>302</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -4798,10 +4866,12 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="45" t="s">
         <v>116</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -4823,7 +4893,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B127" s="7" t="s">
@@ -4845,7 +4915,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -4871,7 +4941,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="45" t="s">
         <v>311</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -4884,10 +4954,12 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="47" t="s">
+      <c r="H129" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="45" t="s">
         <v>323</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -4911,7 +4983,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="45" t="s">
         <v>100</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -4935,7 +5007,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="47" t="s">
+      <c r="A132" s="45" t="s">
         <v>352</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -4950,10 +5022,12 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="31"/>
+      <c r="H132" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="47" t="s">
+      <c r="A133" s="45" t="s">
         <v>180</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -4978,7 +5052,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="47" t="s">
+      <c r="A134" s="45" t="s">
         <v>353</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -4993,10 +5067,12 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
+      <c r="H134" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="45" t="s">
         <v>354</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -5013,10 +5089,12 @@
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
+      <c r="H135" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="45" t="s">
         <v>382</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -5031,10 +5109,12 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="30"/>
+      <c r="H136" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="45" t="s">
         <v>279</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -5052,10 +5132,12 @@
       <c r="G137" s="4">
         <v>-6</v>
       </c>
-      <c r="H137" s="4"/>
+      <c r="H137" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="47" t="s">
+      <c r="A138" s="45" t="s">
         <v>285</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -5073,10 +5155,12 @@
       <c r="G138" s="4">
         <v>-161</v>
       </c>
-      <c r="H138" s="4"/>
+      <c r="H138" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="47" t="s">
+      <c r="A139" s="45" t="s">
         <v>217</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -5093,10 +5177,12 @@
       <c r="G139" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="47" t="s">
+      <c r="H139" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="45" t="s">
         <v>260</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -5121,7 +5207,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="47" t="s">
+      <c r="A141" s="45" t="s">
         <v>307</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -5134,10 +5220,12 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="47" t="s">
+      <c r="A142" s="45" t="s">
         <v>48</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -5163,7 +5251,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="47" t="s">
+      <c r="A143" s="45" t="s">
         <v>159</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -5188,7 +5276,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -5214,7 +5302,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B145" s="7" t="s">
@@ -5240,7 +5328,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="47" t="s">
+      <c r="A146" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -5258,10 +5346,12 @@
       <c r="G146" s="4">
         <v>-425</v>
       </c>
-      <c r="H146" s="30"/>
+      <c r="H146" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="45" t="s">
         <v>319</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -5274,10 +5364,12 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="45" t="s">
         <v>355</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -5294,10 +5386,12 @@
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="H148" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="45" t="s">
         <v>306</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -5310,10 +5404,12 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
+      <c r="H149" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="47" t="s">
+      <c r="A150" s="45" t="s">
         <v>322</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -5331,10 +5427,12 @@
       <c r="G150" s="4">
         <v>-410</v>
       </c>
-      <c r="H150" s="4"/>
+      <c r="H150" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="47" t="s">
+      <c r="A151" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -5349,10 +5447,12 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="28"/>
+      <c r="H151" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -5367,10 +5467,12 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="28"/>
+      <c r="H152" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="45" t="s">
         <v>358</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -5385,10 +5487,12 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="28"/>
+      <c r="H153" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="47" t="s">
+      <c r="A154" s="45" t="s">
         <v>90</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -5412,7 +5516,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="47" t="s">
+      <c r="A155" s="45" t="s">
         <v>359</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -5429,10 +5533,12 @@
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="28"/>
+      <c r="H155" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="47" t="s">
+      <c r="A156" s="45" t="s">
         <v>330</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -5458,7 +5564,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="45" t="s">
         <v>294</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -5471,10 +5577,12 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
+      <c r="H157" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="52" t="s">
+      <c r="A158" s="50" t="s">
         <v>62</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5500,7 +5608,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="47" t="s">
+      <c r="A159" s="45" t="s">
         <v>152</v>
       </c>
       <c r="B159" s="4" t="s">
@@ -5518,10 +5626,12 @@
       <c r="G159" s="4">
         <v>-387</v>
       </c>
-      <c r="H159" s="34"/>
-    </row>
-    <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="47" t="s">
+      <c r="H159" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="45" t="s">
         <v>262</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -5544,7 +5654,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="47" t="s">
+      <c r="A161" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -5570,7 +5680,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="47" t="s">
+      <c r="A162" s="45" t="s">
         <v>98</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -5594,7 +5704,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="47" t="s">
+      <c r="A163" s="45" t="s">
         <v>93</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -5617,8 +5727,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="47" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="45" t="s">
         <v>210</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -5640,7 +5750,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="50" t="s">
         <v>361</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -5657,10 +5767,12 @@
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
-      <c r="H165" s="6"/>
+      <c r="H165" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="47" t="s">
+      <c r="A166" s="45" t="s">
         <v>150</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -5685,7 +5797,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="45" t="s">
         <v>171</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -5710,7 +5822,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="45" t="s">
         <v>321</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -5728,10 +5840,12 @@
       <c r="G168" s="4">
         <v>-310</v>
       </c>
-      <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="47" t="s">
+      <c r="H168" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="45" t="s">
         <v>264</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -5754,7 +5868,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="47" t="s">
+      <c r="A170" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -5780,7 +5894,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="47" t="s">
+      <c r="A171" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -5806,7 +5920,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B172" s="7" t="s">
@@ -5832,7 +5946,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="47" t="s">
+      <c r="A173" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B173" s="7" t="s">
@@ -5858,7 +5972,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="47" t="s">
+      <c r="A174" s="45" t="s">
         <v>54</v>
       </c>
       <c r="B174" s="7" t="s">
@@ -5884,7 +5998,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="47" t="s">
+      <c r="A175" s="45" t="s">
         <v>247</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -5901,10 +6015,12 @@
       <c r="G175" s="4">
         <v>-65</v>
       </c>
-      <c r="H175" s="4"/>
+      <c r="H175" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="47" t="s">
+      <c r="A176" s="45" t="s">
         <v>243</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -5921,10 +6037,12 @@
       <c r="G176" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H176" s="4"/>
+      <c r="H176" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="47" t="s">
+      <c r="A177" s="45" t="s">
         <v>363</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -5939,10 +6057,12 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="34"/>
+      <c r="H177" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="47" t="s">
+      <c r="A178" s="45" t="s">
         <v>365</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -5957,10 +6077,12 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="34"/>
+      <c r="H178" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="47" t="s">
+      <c r="A179" s="45" t="s">
         <v>250</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -5984,8 +6106,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="47" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="45" t="s">
         <v>252</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -6009,7 +6131,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="47" t="s">
+      <c r="A181" s="45" t="s">
         <v>364</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -6024,10 +6146,12 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="34"/>
-    </row>
-    <row r="182" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="47" t="s">
+      <c r="H181" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="45" t="s">
         <v>367</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -6044,10 +6168,12 @@
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="12"/>
-    </row>
-    <row r="183" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="47" t="s">
+      <c r="H182" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="45" t="s">
         <v>368</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -6064,10 +6190,12 @@
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="12"/>
+      <c r="H183" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="47" t="s">
+      <c r="A184" s="45" t="s">
         <v>309</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -6080,10 +6208,12 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
+      <c r="H184" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="47" t="s">
+      <c r="A185" s="45" t="s">
         <v>370</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -6100,10 +6230,12 @@
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
+      <c r="H185" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="47" t="s">
+      <c r="A186" s="45" t="s">
         <v>315</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -6116,10 +6248,12 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
+      <c r="H186" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="47" t="s">
+      <c r="A187" s="45" t="s">
         <v>372</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -6134,10 +6268,12 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
+      <c r="H187" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="47" t="s">
+      <c r="A188" s="45" t="s">
         <v>266</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -6155,10 +6291,12 @@
       <c r="G188" s="4">
         <v>-337</v>
       </c>
-      <c r="H188" s="4"/>
+      <c r="H188" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="47" t="s">
+      <c r="A189" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -6178,10 +6316,12 @@
       <c r="G189" s="4">
         <v>-87</v>
       </c>
-      <c r="H189" s="4"/>
+      <c r="H189" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="47" t="s">
+      <c r="A190" s="45" t="s">
         <v>124</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -6205,7 +6345,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="47" t="s">
+      <c r="A191" s="45" t="s">
         <v>277</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -6220,10 +6360,12 @@
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
+      <c r="H191" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="47" t="s">
+      <c r="A192" s="45" t="s">
         <v>288</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -6241,10 +6383,12 @@
       <c r="G192" s="4">
         <v>-64</v>
       </c>
-      <c r="H192" s="4"/>
+      <c r="H192" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="49" t="s">
+      <c r="A193" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B193" s="7" t="s">
@@ -6270,7 +6414,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="47" t="s">
+      <c r="A194" s="45" t="s">
         <v>172</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -6295,7 +6439,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="47" t="s">
+      <c r="A195" s="45" t="s">
         <v>374</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -6310,10 +6454,12 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="30"/>
+      <c r="H195" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="47" t="s">
+      <c r="A196" s="45" t="s">
         <v>239</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -6326,10 +6472,12 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
+      <c r="H196" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="47" t="s">
+      <c r="A197" s="45" t="s">
         <v>292</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -6342,10 +6490,12 @@
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
+      <c r="H197" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="52" t="s">
+      <c r="A198" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -6355,7 +6505,7 @@
         <v>15</v>
       </c>
       <c r="D198" s="10">
-        <f t="shared" ref="D198:D208" si="1">AVERAGE(F198:G198)</f>
+        <f>AVERAGE(F198:G198)</f>
         <v>-233</v>
       </c>
       <c r="E198" s="10">
@@ -6372,7 +6522,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="47" t="s">
+      <c r="A199" s="45" t="s">
         <v>280</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -6380,7 +6530,7 @@
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="13">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F199:G199)</f>
         <v>-2</v>
       </c>
       <c r="E199" s="4"/>
@@ -6390,10 +6540,12 @@
       <c r="G199" s="4">
         <v>-52</v>
       </c>
-      <c r="H199" s="4"/>
+      <c r="H199" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="47" t="s">
+      <c r="A200" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -6403,7 +6555,7 @@
         <v>15</v>
       </c>
       <c r="D200" s="13">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F200:G200)</f>
         <v>-242.5</v>
       </c>
       <c r="E200" s="4">
@@ -6420,7 +6572,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="47" t="s">
+      <c r="A201" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -6430,7 +6582,7 @@
         <v>15</v>
       </c>
       <c r="D201" s="13">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F201:G201)</f>
         <v>-154</v>
       </c>
       <c r="E201" s="4">
@@ -6447,7 +6599,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="47" t="s">
+      <c r="A202" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -6457,7 +6609,7 @@
         <v>15</v>
       </c>
       <c r="D202" s="13">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F202:G202)</f>
         <v>-266</v>
       </c>
       <c r="E202" s="4">
@@ -6474,7 +6626,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="47" t="s">
+      <c r="A203" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -6484,7 +6636,7 @@
         <v>15</v>
       </c>
       <c r="D203" s="13">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F203:G203)</f>
         <v>-141</v>
       </c>
       <c r="E203" s="4">
@@ -6501,7 +6653,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="47" t="s">
+      <c r="A204" s="45" t="s">
         <v>235</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -6509,7 +6661,7 @@
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F204:G204)</f>
         <v>-320</v>
       </c>
       <c r="E204" s="4"/>
@@ -6519,10 +6671,12 @@
       <c r="G204" s="4">
         <v>-240</v>
       </c>
-      <c r="H204" s="4"/>
-    </row>
-    <row r="205" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="47" t="s">
+      <c r="H204" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B205" s="5" t="s">
@@ -6530,7 +6684,7 @@
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F205:G205)</f>
         <v>-332.5</v>
       </c>
       <c r="E205" s="4"/>
@@ -6545,7 +6699,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="47" t="s">
+      <c r="A206" s="45" t="s">
         <v>238</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -6553,7 +6707,7 @@
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F206:G206)</f>
         <v>-276.5</v>
       </c>
       <c r="E206" s="4"/>
@@ -6563,10 +6717,12 @@
       <c r="G206" s="4">
         <v>-252</v>
       </c>
-      <c r="H206" s="4"/>
+      <c r="H206" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="47" t="s">
+      <c r="A207" s="45" t="s">
         <v>128</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -6574,7 +6730,7 @@
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F207:G207)</f>
         <v>-270</v>
       </c>
       <c r="E207" s="4">
@@ -6591,7 +6747,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="47" t="s">
+      <c r="A208" s="45" t="s">
         <v>128</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -6599,7 +6755,7 @@
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F208:G208)</f>
         <v>-325.5</v>
       </c>
       <c r="E208" s="4">
@@ -6616,7 +6772,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="47" t="s">
+      <c r="A209" s="45" t="s">
         <v>298</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -6629,10 +6785,12 @@
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
+      <c r="H209" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="47" t="s">
+      <c r="A210" s="45" t="s">
         <v>169</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -6657,7 +6815,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="47" t="s">
+      <c r="A211" s="45" t="s">
         <v>375</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -6672,10 +6830,12 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
+      <c r="H211" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="47" t="s">
+      <c r="A212" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -6692,10 +6852,12 @@
       <c r="G212" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H212" s="4"/>
+      <c r="H212" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="47" t="s">
+      <c r="A213" s="45" t="s">
         <v>376</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -6712,10 +6874,12 @@
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="30"/>
+      <c r="H213" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="47" t="s">
+      <c r="A214" s="45" t="s">
         <v>377</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -6732,10 +6896,12 @@
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
-      <c r="H214" s="30"/>
+      <c r="H214" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="52" t="s">
+      <c r="A215" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B215" s="5" t="s">
@@ -6761,7 +6927,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="47" t="s">
+      <c r="A216" s="45" t="s">
         <v>378</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -6776,10 +6942,12 @@
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
-      <c r="H216" s="30"/>
+      <c r="H216" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="47" t="s">
+      <c r="A217" s="45" t="s">
         <v>190</v>
       </c>
       <c r="B217" s="4" t="s">
@@ -6804,7 +6972,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="47" t="s">
+      <c r="A218" s="45" t="s">
         <v>185</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -6829,89 +6997,89 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H218">
-    <sortCondition ref="A1:A218"/>
+  <sortState ref="A2:H218">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H53" r:id="rId1" xr:uid="{6D39D846-663F-4D24-B798-6EC3961EA03D}"/>
-    <hyperlink ref="H54" r:id="rId2" xr:uid="{2D70BCA3-28F3-44D3-97E7-B2B761EE1C6E}"/>
-    <hyperlink ref="H106" r:id="rId3" xr:uid="{65D7D9AE-A497-44F2-A9F4-C98A932AAA65}"/>
-    <hyperlink ref="H99" r:id="rId4" xr:uid="{1D097B90-7D16-45F1-8052-B6CD698D095E}"/>
-    <hyperlink ref="H98" r:id="rId5" display="https://doi.org/10.1074/jbc.M102112200" xr:uid="{1B8BBDA7-580E-45AF-B40C-20BA9708B657}"/>
-    <hyperlink ref="B95" r:id="rId6" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.taxonomy_lineage.name:Saccharomyces%20pastorianus" xr:uid="{75C038C7-82EC-498D-BB74-A60355A29C01}"/>
-    <hyperlink ref="H95" r:id="rId7" xr:uid="{0FF65C2C-F947-4207-AB4F-7D5DEEE544AD}"/>
-    <hyperlink ref="H170" r:id="rId8" xr:uid="{E795C778-704D-41A3-BE5C-B664F07C0A12}"/>
-    <hyperlink ref="H201" r:id="rId9" xr:uid="{B1949560-7144-4675-A206-E1E9D3CECD45}"/>
-    <hyperlink ref="H202" r:id="rId10" xr:uid="{EC494DB5-EDEC-485D-A127-690AD2B51D71}"/>
-    <hyperlink ref="H200" r:id="rId11" xr:uid="{46E8CFF1-F8EC-4143-8125-4412918FBC82}"/>
-    <hyperlink ref="H203" r:id="rId12" xr:uid="{F8F854CD-8D89-48CB-BF0D-CA0BA510D1A0}"/>
-    <hyperlink ref="H127" r:id="rId13" xr:uid="{F2ED1BB7-9D4E-4B1C-9485-D4F3E084B02D}"/>
-    <hyperlink ref="H128" r:id="rId14" xr:uid="{79649005-E733-42E0-AE21-AC8ACAD2BEBC}"/>
-    <hyperlink ref="H145" r:id="rId15" xr:uid="{E3951267-57D2-451C-A891-F13E0622F83E}"/>
-    <hyperlink ref="H25" r:id="rId16" xr:uid="{090BACA0-F1A6-46B7-8165-C4FD3ADEBE76}"/>
-    <hyperlink ref="H81" r:id="rId17" xr:uid="{A45F7A34-7532-4E44-96AA-D6096D482C2C}"/>
-    <hyperlink ref="H80" r:id="rId18" xr:uid="{577CBCD4-2A49-4885-94A8-FA6A0BA0AEEE}"/>
-    <hyperlink ref="H69" r:id="rId19" xr:uid="{4EC70FCC-72E5-4E21-921B-BBD07FF48178}"/>
-    <hyperlink ref="H90" r:id="rId20" xr:uid="{A940C224-F000-48EB-8FB3-81B3E0AB90BA}"/>
-    <hyperlink ref="H87" r:id="rId21" xr:uid="{DEBE5DB8-A800-4F7C-B3AA-686CAB1F74EE}"/>
-    <hyperlink ref="H88" r:id="rId22" xr:uid="{F6AD6339-13EB-4F77-B1C5-ED53B1396832}"/>
-    <hyperlink ref="H108" r:id="rId23" xr:uid="{98C1392B-8B7C-45C7-9D36-E20F031F3DD6}"/>
-    <hyperlink ref="H107" r:id="rId24" xr:uid="{73475292-9B35-4CE5-A319-D47845A5F577}"/>
-    <hyperlink ref="H109" r:id="rId25" xr:uid="{60957362-88FD-4AFC-B12D-D8CF0E9D89DA}"/>
-    <hyperlink ref="H142" r:id="rId26" xr:uid="{82584BBB-7DCD-44CA-A74A-C69A1AC8DAA9}"/>
-    <hyperlink ref="H36:H37" r:id="rId27" display="https://doi.org/10.1074/jbc.M703642200" xr:uid="{8F848C52-38A0-429B-975F-11311E71844A}"/>
-    <hyperlink ref="H174" r:id="rId28" xr:uid="{4099D879-FF7A-4E4A-8CB5-B4A0CEB92E73}"/>
-    <hyperlink ref="H18" r:id="rId29" xr:uid="{7B73CA75-22DA-437A-9BB5-BBFD1A796432}"/>
-    <hyperlink ref="H19" r:id="rId30" xr:uid="{E40A85BB-2350-41F4-95E5-E7C40AAFE4F6}"/>
-    <hyperlink ref="H21" r:id="rId31" xr:uid="{7104C9B3-D310-45B6-9195-FB2809BA07F3}"/>
-    <hyperlink ref="H20" r:id="rId32" xr:uid="{4806E54E-4EB5-4136-922F-2EE76FE1CC5F}"/>
-    <hyperlink ref="H144" r:id="rId33" xr:uid="{F80B69EF-E9DB-4819-A64C-C4AAFBCC02AC}"/>
-    <hyperlink ref="H158" r:id="rId34" xr:uid="{9D8B240E-AA5A-4B3E-8FDF-3C0087F611F0}"/>
-    <hyperlink ref="H198" r:id="rId35" xr:uid="{2D60A70A-DA9A-4A8A-8E37-D4687B486DAF}"/>
-    <hyperlink ref="H215" r:id="rId36" xr:uid="{1EB37E77-C3A3-4887-8D93-C8AED776D9BB}"/>
-    <hyperlink ref="H97" r:id="rId37" xr:uid="{60230802-873E-4F5F-853B-EFA78C7229BE}"/>
-    <hyperlink ref="H113" r:id="rId38" xr:uid="{91C25916-9656-417B-9B2B-707717085879}"/>
-    <hyperlink ref="H101" r:id="rId39" xr:uid="{0770542A-D692-4EC0-8195-057275403486}"/>
-    <hyperlink ref="H36" r:id="rId40" xr:uid="{466760F7-9E0E-4CDD-8970-37032E68B7B7}"/>
-    <hyperlink ref="H37" r:id="rId41" xr:uid="{375B904C-A83E-4267-9C44-90AC98C4BFE6}"/>
-    <hyperlink ref="H47" r:id="rId42" xr:uid="{A8EEABF3-ABCE-46D7-901E-2708781540DF}"/>
-    <hyperlink ref="H193" r:id="rId43" xr:uid="{1ACAA378-0309-409B-92B1-C2890F119B28}"/>
-    <hyperlink ref="H154" r:id="rId44" xr:uid="{24F529FC-CA7E-40D7-BC8C-1845ED45C979}"/>
-    <hyperlink ref="H27" r:id="rId45" xr:uid="{C3E53364-DE77-4C6E-8237-E2A8B63F4300}"/>
-    <hyperlink ref="H162" r:id="rId46" xr:uid="{9DE5D3CF-7177-46BB-B415-75CF96501D6B}"/>
-    <hyperlink ref="H126" r:id="rId47" xr:uid="{E43B8105-A252-4E76-A009-78B2484CE3B3}"/>
-    <hyperlink ref="H57" r:id="rId48" xr:uid="{683E8141-6D83-4393-A695-7E758AE54BDB}"/>
-    <hyperlink ref="H71" r:id="rId49" xr:uid="{49F660BC-7955-4FB8-91AB-63BC43FF64B4}"/>
-    <hyperlink ref="H93" r:id="rId50" xr:uid="{41FF6D16-4EDD-4931-82F3-9CE8FA84A1D7}"/>
-    <hyperlink ref="H102" r:id="rId51" xr:uid="{8E960C9C-C39F-4A16-B96B-ABE09DEC9111}"/>
-    <hyperlink ref="H103" r:id="rId52" xr:uid="{EB518ADA-B4F5-4C78-AC0D-376E68A7F441}"/>
-    <hyperlink ref="H39" r:id="rId53" xr:uid="{B44B5A93-A92F-404F-848B-D23819CDD0B6}"/>
-    <hyperlink ref="H77" r:id="rId54" xr:uid="{ADA67515-FC43-42B2-BFFA-292F4A66851C}"/>
-    <hyperlink ref="H79" r:id="rId55" xr:uid="{2FC4CFDA-2FA7-4881-8F43-31D6D4BA0EE4}"/>
-    <hyperlink ref="H76" r:id="rId56" xr:uid="{8E61985B-9578-4B7A-82EF-47A2897B452B}"/>
-    <hyperlink ref="H123" r:id="rId57" xr:uid="{7226C7F3-D74B-48E9-AF93-1C38065C7111}"/>
-    <hyperlink ref="H121" r:id="rId58" xr:uid="{A9F851C0-BCCC-4A58-A18A-6384C1EA4BEB}"/>
-    <hyperlink ref="H164" r:id="rId59" xr:uid="{D2090621-442A-4110-BE73-74027C6E17E2}"/>
-    <hyperlink ref="H35" r:id="rId60" xr:uid="{B7112E58-9801-45AB-AEA8-BC4109BA65FE}"/>
-    <hyperlink ref="H131" r:id="rId61" xr:uid="{6F201A8D-A9E9-40A2-A580-8167E20C361F}"/>
-    <hyperlink ref="H78" r:id="rId62" xr:uid="{F3F8154B-87F5-4BBA-A962-B77A3276C930}"/>
-    <hyperlink ref="H43" r:id="rId63" xr:uid="{A2E964DA-12F1-4A51-B257-A223C607EFE5}"/>
-    <hyperlink ref="H48" r:id="rId64" xr:uid="{2FB6D342-64EB-4F63-AD9B-B18F88252713}"/>
-    <hyperlink ref="H73" r:id="rId65" xr:uid="{5F2E00BB-A146-400E-AC3C-5864F4451CF0}"/>
-    <hyperlink ref="H91" r:id="rId66" xr:uid="{7DD3F371-CA7C-481D-93D1-D56CA05DFDBE}"/>
-    <hyperlink ref="H105" r:id="rId67" xr:uid="{3C04FF73-2AFC-4C19-9D5F-B5E5422A17DE}"/>
-    <hyperlink ref="H62" r:id="rId68" xr:uid="{8D69C078-ACC3-4076-B2CA-E340643A07E9}"/>
-    <hyperlink ref="H61" r:id="rId69" xr:uid="{4DC3DD9D-2811-43CA-9923-2233EED50EF5}"/>
-    <hyperlink ref="H180" r:id="rId70" xr:uid="{0FE53986-017C-4F62-893A-986EFEAF693C}"/>
-    <hyperlink ref="H112" r:id="rId71" xr:uid="{340DD62E-1A9D-41D2-BD4F-CC4B8A31F2D0}"/>
-    <hyperlink ref="H140" r:id="rId72" xr:uid="{A6903243-1ED3-48C4-81DC-9C69211B0319}"/>
-    <hyperlink ref="H160" r:id="rId73" xr:uid="{C4B6798C-D6F3-483B-A058-762D2966E9AE}"/>
-    <hyperlink ref="H169" r:id="rId74" xr:uid="{E0ADAB31-733A-4941-BC6A-7766AA1A7848}"/>
-    <hyperlink ref="H205" r:id="rId75" xr:uid="{0899F311-9C91-4A04-B68C-F59F1F9128CA}"/>
-    <hyperlink ref="H130" r:id="rId76" xr:uid="{1AD6A1F0-936F-4C3A-B74F-1B72529FEF86}"/>
-    <hyperlink ref="H26" r:id="rId77" xr:uid="{165AD13F-1551-4772-BBF4-167E89EBA120}"/>
-    <hyperlink ref="H10" r:id="rId78" xr:uid="{A2BEAB08-1B7D-4892-B8D3-6D1FA8202BDC}"/>
+    <hyperlink ref="H53" r:id="rId1"/>
+    <hyperlink ref="H54" r:id="rId2"/>
+    <hyperlink ref="H106" r:id="rId3"/>
+    <hyperlink ref="H99" r:id="rId4"/>
+    <hyperlink ref="H98" r:id="rId5" display="https://doi.org/10.1074/jbc.M102112200"/>
+    <hyperlink ref="B95" r:id="rId6" display="https://www.rcsb.org/search?q=rcsb_entity_source_organism.taxonomy_lineage.name:Saccharomyces%20pastorianus"/>
+    <hyperlink ref="H95" r:id="rId7"/>
+    <hyperlink ref="H170" r:id="rId8"/>
+    <hyperlink ref="H201" r:id="rId9"/>
+    <hyperlink ref="H202" r:id="rId10"/>
+    <hyperlink ref="H200" r:id="rId11"/>
+    <hyperlink ref="H203" r:id="rId12"/>
+    <hyperlink ref="H127" r:id="rId13"/>
+    <hyperlink ref="H128" r:id="rId14"/>
+    <hyperlink ref="H145" r:id="rId15"/>
+    <hyperlink ref="H25" r:id="rId16"/>
+    <hyperlink ref="H81" r:id="rId17"/>
+    <hyperlink ref="H80" r:id="rId18"/>
+    <hyperlink ref="H69" r:id="rId19"/>
+    <hyperlink ref="H91" r:id="rId20"/>
+    <hyperlink ref="H87" r:id="rId21"/>
+    <hyperlink ref="H88" r:id="rId22"/>
+    <hyperlink ref="H108" r:id="rId23"/>
+    <hyperlink ref="H107" r:id="rId24"/>
+    <hyperlink ref="H109" r:id="rId25"/>
+    <hyperlink ref="H142" r:id="rId26"/>
+    <hyperlink ref="H36:H37" r:id="rId27" display="https://doi.org/10.1074/jbc.M703642200"/>
+    <hyperlink ref="H174" r:id="rId28"/>
+    <hyperlink ref="H18" r:id="rId29"/>
+    <hyperlink ref="H19" r:id="rId30"/>
+    <hyperlink ref="H21" r:id="rId31"/>
+    <hyperlink ref="H20" r:id="rId32"/>
+    <hyperlink ref="H144" r:id="rId33"/>
+    <hyperlink ref="H158" r:id="rId34"/>
+    <hyperlink ref="H198" r:id="rId35"/>
+    <hyperlink ref="H215" r:id="rId36"/>
+    <hyperlink ref="H97" r:id="rId37"/>
+    <hyperlink ref="H113" r:id="rId38"/>
+    <hyperlink ref="H101" r:id="rId39"/>
+    <hyperlink ref="H36" r:id="rId40"/>
+    <hyperlink ref="H37" r:id="rId41"/>
+    <hyperlink ref="H47" r:id="rId42"/>
+    <hyperlink ref="H193" r:id="rId43"/>
+    <hyperlink ref="H154" r:id="rId44"/>
+    <hyperlink ref="H27" r:id="rId45"/>
+    <hyperlink ref="H162" r:id="rId46"/>
+    <hyperlink ref="H126" r:id="rId47"/>
+    <hyperlink ref="H57" r:id="rId48"/>
+    <hyperlink ref="H71" r:id="rId49"/>
+    <hyperlink ref="H93" r:id="rId50"/>
+    <hyperlink ref="H102" r:id="rId51"/>
+    <hyperlink ref="H103" r:id="rId52"/>
+    <hyperlink ref="H39" r:id="rId53"/>
+    <hyperlink ref="H77" r:id="rId54"/>
+    <hyperlink ref="H79" r:id="rId55"/>
+    <hyperlink ref="H76" r:id="rId56"/>
+    <hyperlink ref="H123" r:id="rId57"/>
+    <hyperlink ref="H121" r:id="rId58"/>
+    <hyperlink ref="H164" r:id="rId59"/>
+    <hyperlink ref="H35" r:id="rId60"/>
+    <hyperlink ref="H131" r:id="rId61"/>
+    <hyperlink ref="H78" r:id="rId62"/>
+    <hyperlink ref="H43" r:id="rId63"/>
+    <hyperlink ref="H48" r:id="rId64"/>
+    <hyperlink ref="H73" r:id="rId65"/>
+    <hyperlink ref="H90" r:id="rId66"/>
+    <hyperlink ref="H105" r:id="rId67"/>
+    <hyperlink ref="H61" r:id="rId68"/>
+    <hyperlink ref="H62" r:id="rId69"/>
+    <hyperlink ref="H180" r:id="rId70"/>
+    <hyperlink ref="H112" r:id="rId71"/>
+    <hyperlink ref="H140" r:id="rId72"/>
+    <hyperlink ref="H160" r:id="rId73"/>
+    <hyperlink ref="H169" r:id="rId74"/>
+    <hyperlink ref="H205" r:id="rId75"/>
+    <hyperlink ref="H130" r:id="rId76"/>
+    <hyperlink ref="H26" r:id="rId77"/>
+    <hyperlink ref="H10" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId79"/>
